--- a/aDiary/usrdata/Test/misiones.xlsx
+++ b/aDiary/usrdata/Test/misiones.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="2">
-  <si>
-    <t>$</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t/>
   </si>
@@ -37,7 +34,6 @@
       <main:sz val="10"/>
       <main:name val="Arial"/>
       <main:family val="2"/>
-      <main:charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -81,50 +77,12 @@
   <cols>
     <col min="1" max="1" width="11.51953125" customWidth="true"/>
     <col min="2" max="2" width="11.51953125" customWidth="true"/>
-    <col min="3" max="3" width="11.51953125" customWidth="true"/>
-    <col min="4" max="4" width="11.51953125" customWidth="true"/>
-    <col min="5" max="5" width="11.51953125" customWidth="true"/>
-    <col min="6" max="6" width="11.51953125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.8" customHeight="true">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="12.8" customHeight="true">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="12.8" customHeight="true">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
